--- a/Projects/PNGAMERICA/Data/Template_v4.xlsx
+++ b/Projects/PNGAMERICA/Data/Template_v4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="block and availability" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,6 +28,7 @@
     <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$337</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$337</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3042" uniqueCount="185">
   <si>
     <t>kpi Name</t>
   </si>
@@ -604,7 +605,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -663,12 +664,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -777,7 +772,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -882,15 +877,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -984,7 +975,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="74.6315789473684"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="75.3036437246964"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -1081,10 +1072,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="135.825910931174"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="137.004048582996"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1240,12 +1231,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="62.3441295546559"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="62.8785425101215"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1336,13 +1327,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.3481781376518"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.3481781376518"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1487,9 +1478,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="92.4453441295547"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.0607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="93.2995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.5951417004049"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.2753036437247"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
@@ -1558,10 +1549,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.6315789473684"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.0607287449393"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1619,7 +1610,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="11" t="s">
         <v>130</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -1669,23 +1660,23 @@
       <c r="A3" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="H3" s="27" t="s">
+      <c r="D3" s="26"/>
+      <c r="H3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="N3" s="27" t="n">
+      <c r="N3" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="O3" s="27" t="n">
+      <c r="O3" s="26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1713,7 +1704,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1754,10 +1745,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="97.4777327935223"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.0566801619433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="98.336032388664"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2043,10 +2034,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="97.587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.8785425101215"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.7732793522267"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="98.4412955465587"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.2024291497976"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2702,11 +2693,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="85.3724696356275"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="86.1255060728745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3445,20 +3436,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C66" activeCellId="0" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="138.182186234818"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="139.46963562753"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.0647773279352"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4564,6 +4555,192 @@
         <v>26</v>
       </c>
       <c r="E65" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" s="0" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4591,9 +4768,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="74.9838056680162"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.7368421052632"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="75.6275303643725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.2753036437247"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.8461538461538"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4755,9 +4932,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="92.4453441295547"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.0607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="93.2995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.5951417004049"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.2753036437247"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5213,10 +5390,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="108.19028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="109.153846153846"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5594,18 +5771,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F345"/>
+  <dimension ref="A1:F356"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B136" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B169" activeCellId="0" sqref="B169"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A331" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A356" activeCellId="0" sqref="A356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="92.4453441295547"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="77.9838056680162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="93.2995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="78.6234817813765"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -11444,6 +11621,9 @@
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="s">
+        <v>128</v>
+      </c>
       <c r="B344" s="0" t="s">
         <v>14</v>
       </c>
@@ -11457,119 +11637,210 @@
         <v>142</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B345" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C345" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D345" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E345" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B346" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C346" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D346" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E346" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B347" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C347" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D347" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E347" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B348" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C348" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D348" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E348" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B349" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C349" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D349" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E349" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B350" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C350" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D350" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E350" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B351" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C351" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D351" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E351" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B352" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C352" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D352" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E352" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B353" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C353" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D353" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E353" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B354" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C354" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D354" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E354" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B355" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C355" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D355" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E355" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B356" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C356" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D356" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E356" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F337"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/PNGAMERICA/Data/Template_v4.xlsx
+++ b/Projects/PNGAMERICA/Data/Template_v4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="block and availability" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,16 +24,17 @@
     <sheet name="relative" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$357</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$337</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">main!$A$1:$F$357</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">main!$A$1:$F$357</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">main!$A$1:$F$337</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3064" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3072" uniqueCount="199">
   <si>
     <t>kpi Name</t>
   </si>
@@ -543,6 +544,24 @@
   </si>
   <si>
     <t>Orchestration:Absorbency_Orchestration:FEM CARE</t>
+  </si>
+  <si>
+    <t>1 – REGULAR, 2 - LONG SUPER, 3 - EXTRA LONG SUPER, 4 – OVERNIGHT, 5 - EXTRA HEAVY OVERNIGHT</t>
+  </si>
+  <si>
+    <t>COVERAGE</t>
+  </si>
+  <si>
+    <t>right, left</t>
+  </si>
+  <si>
+    <t>Orchestration:Absorbency_Orchestration:AI</t>
+  </si>
+  <si>
+    <t>MAXIMUM, ULTIMATE, MODERATE, VERY LIGHT, ULTRA THIN</t>
+  </si>
+  <si>
+    <t>ABSORBENCY</t>
   </si>
   <si>
     <t>ALWAYS</t>
@@ -1004,7 +1023,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="79.3765182186235"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="80.0161943319838"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -1101,10 +1120,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="144.502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="145.894736842105"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1260,12 +1279,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="66.1983805668016"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.6356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="66.8421052631579"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1348,21 +1367,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.5991902834008"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1481,6 +1500,32 @@
       </c>
       <c r="B6" s="0" t="s">
         <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1507,9 +1552,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="98.336032388664"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.2753036437247"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="99.1902834008097"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.7004048582996"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.8461538461539"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
@@ -1545,13 +1590,13 @@
         <v>22</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1578,10 +1623,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.7368421052632"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2753036437247"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1590,52 +1635,52 @@
         <v>16</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="N1" s="25" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="O1" s="25" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="P1" s="25" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q1" s="25" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1646,37 +1691,37 @@
         <v>26</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>1</v>
@@ -1693,14 +1738,14 @@
         <v>22</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D3" s="26"/>
       <c r="H3" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="N3" s="26" t="n">
         <v>1</v>
@@ -1717,13 +1762,13 @@
         <v>26</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>26</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -1750,10 +1795,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="103.692307692308"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.1295546558705"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="104.546558704453"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.663967611336"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2039,10 +2084,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="103.797570850202"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.8825910931174"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="104.655870445344"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.9514170040486"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.3076923076923"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2698,11 +2743,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="90.8380566801619"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="91.6923076923077"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.17004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3449,12 +3494,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="147.182186234818"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="148.574898785425"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.6720647773279"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.17004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4808,9 +4853,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="79.6963562753036"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.0566801619433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="80.3400809716599"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4972,9 +5017,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="98.336032388664"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.2753036437247"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="99.1902834008097"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.7004048582996"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.8461538461539"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5430,10 +5475,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="115.153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.0242914979757"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="116.117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5813,16 +5858,16 @@
   </sheetPr>
   <dimension ref="A1:F358"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A337" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B356" activeCellId="0" sqref="B356"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A283" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D360" activeCellId="0" sqref="D360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="98.336032388664"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="82.8016194331984"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="99.1902834008097"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="83.5546558704453"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -11916,7 +11961,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F357"/>
+  <autoFilter ref="A1:F337"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
